--- a/00_additional_data/COS_branch_logbook.xlsx
+++ b/00_additional_data/COS_branch_logbook.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasminl\Dropbox (Weizmann Institute)\Ecophysiology group\Yasmin\Work with Jonathan on soil-branch transition 21_01_22\00_additional_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\GitHub\Laser-chamber-fluxes\00_additional_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1FD912-20D2-4B43-AE39-D01809F0E768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Branch" sheetId="1" r:id="rId1"/>
+    <sheet name="branch" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>year</t>
   </si>
@@ -48,13 +47,22 @@
     <t>end time</t>
   </si>
   <si>
-    <t>0.0 when branch not measured, start time or end time filled in only when swaped mid-day from soil to branch or from branch to soil respectively</t>
+    <t>&gt;0 chamber worked with the flow in slpm</t>
+  </si>
+  <si>
+    <t>0 = chamber did not work</t>
+  </si>
+  <si>
+    <t>start time or end time filled in only when swaped mid-day from soil to branch or from branch to soil respectively</t>
+  </si>
+  <si>
+    <t>comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -96,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -108,6 +116,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,16 +398,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,8 +429,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>2022</v>
       </c>
@@ -432,11 +446,11 @@
       <c r="D2" s="3"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3"/>
-      <c r="I2" t="s">
-        <v>7</v>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2022</v>
       </c>
@@ -448,11 +462,11 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="I3" s="1" t="s">
-        <v>3</v>
+      <c r="H3" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>2022</v>
       </c>
@@ -467,11 +481,11 @@
       <c r="G4" s="4">
         <v>0.49583333333333335</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>4</v>
+      <c r="H4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>2022</v>
       </c>
@@ -488,8 +502,11 @@
         <v>0</v>
       </c>
       <c r="F5" s="1"/>
+      <c r="H5" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>2022</v>
       </c>
@@ -506,6 +523,9 @@
         <v>0</v>
       </c>
       <c r="F6" s="1"/>
+      <c r="H6" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
